--- a/clean_routes.xlsx
+++ b/clean_routes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac46583d1abce789/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac46583d1abce789/Desktop/Simulation/ElectricTransitSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B6384BE8-461C-4AFF-9106-7EBCE9150397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52AF858D-5553-401A-91BD-16BAF840EC6A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{B6384BE8-461C-4AFF-9106-7EBCE9150397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38750137-275B-4665-8045-EB160718728C}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="396" windowWidth="16164" windowHeight="12240" xr2:uid="{D72488D0-B4AD-4F23-A5C1-770692DF908E}"/>
+    <workbookView xWindow="3888" yWindow="816" windowWidth="16164" windowHeight="11424" xr2:uid="{D72488D0-B4AD-4F23-A5C1-770692DF908E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>routeNum</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>s_mins</t>
+  </si>
+  <si>
+    <t>e_mins</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
   <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +443,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -451,8 +463,14 @@
       <c r="D2" s="1">
         <v>12.3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <f>B2*15</f>
+        <v>480</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2*15</f>
+        <v>540</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -469,8 +487,14 @@
       <c r="D3" s="1">
         <v>13.2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E68" si="0">B3*15</f>
+        <v>885</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="1">C3*15</f>
+        <v>945</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -487,8 +511,14 @@
       <c r="D4" s="1">
         <v>14.4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -505,8 +535,14 @@
       <c r="D5" s="1">
         <v>14.4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -523,8 +559,14 @@
       <c r="D6" s="1">
         <v>14.4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -541,8 +583,14 @@
       <c r="D7" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -559,8 +607,14 @@
       <c r="D8" s="1">
         <v>17.3</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -577,8 +631,14 @@
       <c r="D9" s="1">
         <v>21.4</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -595,8 +655,14 @@
       <c r="D10" s="1">
         <v>21.5</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -613,8 +679,14 @@
       <c r="D11" s="1">
         <v>22</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -631,8 +703,14 @@
       <c r="D12" s="1">
         <v>24</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -649,8 +727,14 @@
       <c r="D13" s="1">
         <v>27.5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1155</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -667,8 +751,14 @@
       <c r="D14" s="1">
         <v>35.6</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
@@ -685,8 +775,14 @@
       <c r="D15" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>1155</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
@@ -703,8 +799,14 @@
       <c r="D16" s="1">
         <v>39</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
@@ -721,8 +823,14 @@
       <c r="D17" s="1">
         <v>39.1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -739,8 +847,14 @@
       <c r="D18" s="1">
         <v>39.4</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -757,8 +871,14 @@
       <c r="D19" s="1">
         <v>43.2</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -775,8 +895,14 @@
       <c r="D20" s="1">
         <v>43.2</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -793,8 +919,14 @@
       <c r="D21" s="1">
         <v>43.2</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -811,8 +943,14 @@
       <c r="D22" s="1">
         <v>43.5</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -829,8 +967,14 @@
       <c r="D23" s="1">
         <v>43.5</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -847,8 +991,14 @@
       <c r="D24" s="1">
         <v>45.6</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -865,8 +1015,14 @@
       <c r="D25" s="1">
         <v>45.8</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1185</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -883,8 +1039,14 @@
       <c r="D26" s="1">
         <v>45.8</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -901,8 +1063,14 @@
       <c r="D27" s="1">
         <v>45.8</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
@@ -919,8 +1087,14 @@
       <c r="D28" s="1">
         <v>46.4</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -937,8 +1111,14 @@
       <c r="D29" s="1">
         <v>47.6</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -955,8 +1135,14 @@
       <c r="D30" s="1">
         <v>48</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -973,8 +1159,14 @@
       <c r="D31" s="1">
         <v>48.3</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -991,8 +1183,14 @@
       <c r="D32" s="1">
         <v>48.3</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1009,8 +1207,14 @@
       <c r="D33" s="1">
         <v>49.5</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1027,8 +1231,14 @@
       <c r="D34" s="1">
         <v>49.5</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1065</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1045,8 +1255,14 @@
       <c r="D35" s="1">
         <v>49.6</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -1063,8 +1279,14 @@
       <c r="D36" s="1">
         <v>49.6</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1081,8 +1303,14 @@
       <c r="D37" s="1">
         <v>49.7</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1099,8 +1327,14 @@
       <c r="D38" s="1">
         <v>50.2</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1117,8 +1351,14 @@
       <c r="D39" s="1">
         <v>50.2</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -1135,8 +1375,14 @@
       <c r="D40" s="1">
         <v>50.2</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -1153,8 +1399,14 @@
       <c r="D41" s="1">
         <v>50.6</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -1171,8 +1423,14 @@
       <c r="D42" s="1">
         <v>51</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -1189,8 +1447,14 @@
       <c r="D43" s="1">
         <v>51</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -1207,8 +1471,14 @@
       <c r="D44" s="1">
         <v>53.2</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -1225,8 +1495,14 @@
       <c r="D45" s="1">
         <v>53.2</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -1243,8 +1519,14 @@
       <c r="D46" s="1">
         <v>53.3</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -1261,8 +1543,14 @@
       <c r="D47" s="1">
         <v>53.9</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -1279,8 +1567,14 @@
       <c r="D48" s="1">
         <v>54.6</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -1297,8 +1591,14 @@
       <c r="D49" s="1">
         <v>55.3</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -1315,8 +1615,14 @@
       <c r="D50" s="1">
         <v>55.4</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>1155</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -1333,8 +1639,14 @@
       <c r="D51" s="1">
         <v>55.7</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -1351,8 +1663,14 @@
       <c r="D52" s="1">
         <v>56.4</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -1369,8 +1687,14 @@
       <c r="D53" s="1">
         <v>56.7</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -1387,8 +1711,14 @@
       <c r="D54" s="1">
         <v>57.1</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -1405,8 +1735,14 @@
       <c r="D55" s="1">
         <v>57.2</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -1423,8 +1759,14 @@
       <c r="D56" s="1">
         <v>57.5</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -1441,8 +1783,14 @@
       <c r="D57" s="1">
         <v>58.9</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -1459,8 +1807,14 @@
       <c r="D58" s="1">
         <v>59.2</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -1477,8 +1831,14 @@
       <c r="D59" s="1">
         <v>59.8</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -1495,8 +1855,14 @@
       <c r="D60" s="1">
         <v>60.8</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>885</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -1513,8 +1879,14 @@
       <c r="D61" s="1">
         <v>61.4</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -1531,8 +1903,14 @@
       <c r="D62" s="1">
         <v>62.3</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -1549,8 +1927,14 @@
       <c r="D63" s="1">
         <v>62.3</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -1567,8 +1951,14 @@
       <c r="D64" s="1">
         <v>62.5</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
@@ -1585,8 +1975,14 @@
       <c r="D65" s="1">
         <v>62.5</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -1603,8 +1999,14 @@
       <c r="D66" s="1">
         <v>62.5</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -1621,8 +2023,14 @@
       <c r="D67" s="1">
         <v>62.5</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E98" si="2">B67*15</f>
+        <v>1020</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F130" si="3">C67*15</f>
+        <v>1155</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
@@ -1639,8 +2047,14 @@
       <c r="D68" s="1">
         <v>62.7</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="E68" s="1">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
@@ -1657,8 +2071,14 @@
       <c r="D69" s="1">
         <v>63</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="E69" s="1">
+        <f t="shared" ref="E69:E132" si="4">B69*15</f>
+        <v>330</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
@@ -1675,8 +2095,14 @@
       <c r="D70" s="1">
         <v>63.1</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="E70" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
@@ -1693,8 +2119,14 @@
       <c r="D71" s="1">
         <v>63.4</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="E71" s="1">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
@@ -1711,8 +2143,14 @@
       <c r="D72" s="1">
         <v>64.400000000000006</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="E72" s="1">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
@@ -1729,8 +2167,14 @@
       <c r="D73" s="1">
         <v>66.099999999999994</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="E73" s="1">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
@@ -1747,8 +2191,14 @@
       <c r="D74" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="E74" s="1">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
@@ -1765,8 +2215,14 @@
       <c r="D75" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="E75" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
@@ -1783,8 +2239,14 @@
       <c r="D76" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="E76" s="1">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
@@ -1801,8 +2263,14 @@
       <c r="D77" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="E77" s="1">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
@@ -1819,8 +2287,14 @@
       <c r="D78" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="E78" s="1">
+        <f t="shared" si="4"/>
+        <v>435</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
@@ -1837,8 +2311,14 @@
       <c r="D79" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="E79" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
@@ -1855,8 +2335,14 @@
       <c r="D80" s="1">
         <v>69</v>
       </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="E80" s="1">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
@@ -1873,8 +2359,14 @@
       <c r="D81" s="1">
         <v>69</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="E81" s="1">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
@@ -1891,8 +2383,14 @@
       <c r="D82" s="1">
         <v>69</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="E82" s="1">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
@@ -1909,8 +2407,14 @@
       <c r="D83" s="1">
         <v>69</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="E83" s="1">
+        <f t="shared" si="4"/>
+        <v>1035</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
@@ -1927,8 +2431,14 @@
       <c r="D84" s="1">
         <v>69</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="E84" s="1">
+        <f t="shared" si="4"/>
+        <v>1005</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
@@ -1945,8 +2455,14 @@
       <c r="D85" s="1">
         <v>69</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="1">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
@@ -1963,8 +2479,14 @@
       <c r="D86" s="1">
         <v>69.7</v>
       </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="E86" s="1">
+        <f t="shared" si="4"/>
+        <v>885</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
@@ -1981,8 +2503,14 @@
       <c r="D87" s="1">
         <v>69.7</v>
       </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="E87" s="1">
+        <f t="shared" si="4"/>
+        <v>945</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
@@ -1999,8 +2527,14 @@
       <c r="D88" s="1">
         <v>72</v>
       </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="E88" s="1">
+        <f t="shared" si="4"/>
+        <v>870</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
@@ -2017,8 +2551,14 @@
       <c r="D89" s="1">
         <v>72.099999999999994</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="E89" s="1">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
@@ -2035,8 +2575,14 @@
       <c r="D90" s="1">
         <v>73.400000000000006</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="E90" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
@@ -2053,8 +2599,14 @@
       <c r="D91" s="1">
         <v>73.400000000000006</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="E91" s="1">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
@@ -2071,8 +2623,14 @@
       <c r="D92" s="1">
         <v>73.7</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="E92" s="1">
+        <f t="shared" si="4"/>
+        <v>885</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
@@ -2089,8 +2647,14 @@
       <c r="D93" s="1">
         <v>73.7</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="E93" s="1">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
@@ -2107,8 +2671,14 @@
       <c r="D94" s="1">
         <v>73.7</v>
       </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="E94" s="1">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
@@ -2125,8 +2695,14 @@
       <c r="D95" s="1">
         <v>75.8</v>
       </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="E95" s="1">
+        <f t="shared" si="4"/>
+        <v>885</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
@@ -2143,8 +2719,14 @@
       <c r="D96" s="1">
         <v>76.5</v>
       </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="E96" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
@@ -2161,8 +2743,14 @@
       <c r="D97" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="E97" s="1">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
@@ -2179,8 +2767,14 @@
       <c r="D98" s="1">
         <v>79.2</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="E98" s="1">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
@@ -2197,8 +2791,14 @@
       <c r="D99" s="1">
         <v>79.2</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="E99" s="1">
+        <f t="shared" si="4"/>
+        <v>885</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
@@ -2215,8 +2815,14 @@
       <c r="D100" s="1">
         <v>81.2</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="E100" s="1">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
@@ -2233,8 +2839,14 @@
       <c r="D101" s="1">
         <v>82</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="E101" s="1">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
@@ -2251,8 +2863,14 @@
       <c r="D102" s="1">
         <v>84.3</v>
       </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="E102" s="1">
+        <f t="shared" si="4"/>
+        <v>915</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
@@ -2269,8 +2887,14 @@
       <c r="D103" s="1">
         <v>87.9</v>
       </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="E103" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
@@ -2287,8 +2911,14 @@
       <c r="D104" s="1">
         <v>89.1</v>
       </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="E104" s="1">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
@@ -2305,8 +2935,14 @@
       <c r="D105" s="1">
         <v>89.5</v>
       </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="E105" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
@@ -2323,8 +2959,14 @@
       <c r="D106" s="1">
         <v>89.7</v>
       </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="E106" s="1">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
@@ -2341,8 +2983,14 @@
       <c r="D107" s="1">
         <v>89.7</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="E107" s="1">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
@@ -2359,8 +3007,14 @@
       <c r="D108" s="1">
         <v>89.7</v>
       </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="E108" s="1">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
@@ -2377,8 +3031,14 @@
       <c r="D109" s="1">
         <v>89.7</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="E109" s="1">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
@@ -2395,8 +3055,14 @@
       <c r="D110" s="1">
         <v>89.7</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="E110" s="1">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
@@ -2413,8 +3079,14 @@
       <c r="D111" s="1">
         <v>89.7</v>
       </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="E111" s="1">
+        <f t="shared" si="4"/>
+        <v>870</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
@@ -2431,8 +3103,14 @@
       <c r="D112" s="1">
         <v>89.8</v>
       </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="E112" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
@@ -2449,8 +3127,14 @@
       <c r="D113" s="1">
         <v>90</v>
       </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="E113" s="1">
+        <f t="shared" si="4"/>
+        <v>1035</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="3"/>
+        <v>1215</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
@@ -2467,8 +3151,14 @@
       <c r="D114" s="1">
         <v>90</v>
       </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="E114" s="1">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
@@ -2485,8 +3175,14 @@
       <c r="D115" s="1">
         <v>90</v>
       </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="E115" s="1">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
@@ -2503,8 +3199,14 @@
       <c r="D116" s="1">
         <v>90</v>
       </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="E116" s="1">
+        <f t="shared" si="4"/>
+        <v>945</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
@@ -2521,8 +3223,14 @@
       <c r="D117" s="1">
         <v>90</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="E117" s="1">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
@@ -2539,8 +3247,14 @@
       <c r="D118" s="1">
         <v>90</v>
       </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="E118" s="1">
+        <f t="shared" si="4"/>
+        <v>1005</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
@@ -2557,8 +3271,14 @@
       <c r="D119" s="1">
         <v>90.6</v>
       </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="E119" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
@@ -2575,8 +3295,14 @@
       <c r="D120" s="1">
         <v>91.9</v>
       </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="E120" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
@@ -2593,8 +3319,14 @@
       <c r="D121" s="1">
         <v>92.1</v>
       </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="E121" s="1">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
@@ -2611,8 +3343,14 @@
       <c r="D122" s="1">
         <v>92.3</v>
       </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="E122" s="1">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
@@ -2629,8 +3367,14 @@
       <c r="D123" s="1">
         <v>92.7</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="E123" s="1">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="3"/>
+        <v>1320</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
@@ -2647,8 +3391,14 @@
       <c r="D124" s="1">
         <v>94.9</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="E124" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
@@ -2665,8 +3415,14 @@
       <c r="D125" s="1">
         <v>95.5</v>
       </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="E125" s="1">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
@@ -2683,8 +3439,14 @@
       <c r="D126" s="1">
         <v>96.1</v>
       </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="E126" s="1">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
@@ -2701,8 +3463,14 @@
       <c r="D127" s="1">
         <v>96.1</v>
       </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="E127" s="1">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
@@ -2719,8 +3487,14 @@
       <c r="D128" s="1">
         <v>96.1</v>
       </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="E128" s="1">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
@@ -2737,8 +3511,14 @@
       <c r="D129" s="1">
         <v>96.1</v>
       </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="E129" s="1">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
@@ -2755,8 +3535,14 @@
       <c r="D130" s="1">
         <v>96.8</v>
       </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="E130" s="1">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
@@ -2773,8 +3559,14 @@
       <c r="D131" s="1">
         <v>97.2</v>
       </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="E131" s="1">
+        <f t="shared" si="4"/>
+        <v>915</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131:F194" si="5">C131*15</f>
+        <v>1155</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
@@ -2791,8 +3583,14 @@
       <c r="D132" s="1">
         <v>98.2</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="E132" s="1">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="5"/>
+        <v>1230</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
@@ -2809,8 +3607,14 @@
       <c r="D133" s="1">
         <v>98.2</v>
       </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="E133" s="1">
+        <f t="shared" ref="E133:E196" si="6">B133*15</f>
+        <v>975</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="5"/>
+        <v>1170</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
@@ -2827,8 +3631,14 @@
       <c r="D134" s="1">
         <v>98.7</v>
       </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="E134" s="1">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
@@ -2845,8 +3655,14 @@
       <c r="D135" s="1">
         <v>98.9</v>
       </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="E135" s="1">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
@@ -2863,8 +3679,14 @@
       <c r="D136" s="1">
         <v>99.5</v>
       </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="E136" s="1">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="5"/>
+        <v>495</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
@@ -2881,8 +3703,14 @@
       <c r="D137" s="1">
         <v>99.5</v>
       </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="E137" s="1">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
@@ -2899,8 +3727,14 @@
       <c r="D138" s="1">
         <v>99.5</v>
       </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="E138" s="1">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="5"/>
+        <v>615</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
@@ -2917,8 +3751,14 @@
       <c r="D139" s="1">
         <v>101</v>
       </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="E139" s="1">
+        <f t="shared" si="6"/>
+        <v>975</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="5"/>
+        <v>1395</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
@@ -2935,8 +3775,14 @@
       <c r="D140" s="1">
         <v>103.2</v>
       </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="E140" s="1">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
@@ -2953,8 +3799,14 @@
       <c r="D141" s="1">
         <v>103.2</v>
       </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="E141" s="1">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="5"/>
+        <v>1125</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
@@ -2971,8 +3823,14 @@
       <c r="D142" s="1">
         <v>104</v>
       </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="E142" s="1">
+        <f t="shared" si="6"/>
+        <v>915</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
@@ -2989,8 +3847,14 @@
       <c r="D143" s="1">
         <v>104.2</v>
       </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="E143" s="1">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
@@ -3007,8 +3871,14 @@
       <c r="D144" s="1">
         <v>104.2</v>
       </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="E144" s="1">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
@@ -3025,8 +3895,14 @@
       <c r="D145" s="1">
         <v>104.5</v>
       </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="E145" s="1">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
@@ -3043,8 +3919,14 @@
       <c r="D146" s="1">
         <v>104.5</v>
       </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="E146" s="1">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
@@ -3061,8 +3943,14 @@
       <c r="D147" s="1">
         <v>104.6</v>
       </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="E147" s="1">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
@@ -3079,8 +3967,14 @@
       <c r="D148" s="1">
         <v>104.8</v>
       </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="E148" s="1">
+        <f t="shared" si="6"/>
+        <v>915</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
@@ -3097,8 +3991,14 @@
       <c r="D149" s="1">
         <v>104.9</v>
       </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="E149" s="1">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
@@ -3115,8 +4015,14 @@
       <c r="D150" s="1">
         <v>105.2</v>
       </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="E150" s="1">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
@@ -3133,8 +4039,14 @@
       <c r="D151" s="1">
         <v>105.3</v>
       </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="E151" s="1">
+        <f t="shared" si="6"/>
+        <v>885</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
@@ -3151,8 +4063,14 @@
       <c r="D152" s="1">
         <v>105.4</v>
       </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="E152" s="1">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
@@ -3169,8 +4087,14 @@
       <c r="D153" s="1">
         <v>105.8</v>
       </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="E153" s="1">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="5"/>
+        <v>615</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
@@ -3187,8 +4111,14 @@
       <c r="D154" s="1">
         <v>107.2</v>
       </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="E154" s="1">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
@@ -3205,8 +4135,14 @@
       <c r="D155" s="1">
         <v>108.4</v>
       </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="E155" s="1">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
@@ -3223,8 +4159,14 @@
       <c r="D156" s="1">
         <v>108.7</v>
       </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="E156" s="1">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
@@ -3241,8 +4183,14 @@
       <c r="D157" s="1">
         <v>110.4</v>
       </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="E157" s="1">
+        <f t="shared" si="6"/>
+        <v>930</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="5"/>
+        <v>1230</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
@@ -3259,8 +4207,14 @@
       <c r="D158" s="1">
         <v>110.9</v>
       </c>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="E158" s="1">
+        <f t="shared" si="6"/>
+        <v>885</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="5"/>
+        <v>1125</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
@@ -3277,8 +4231,14 @@
       <c r="D159" s="1">
         <v>111.9</v>
       </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="E159" s="1">
+        <f t="shared" si="6"/>
+        <v>915</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="5"/>
+        <v>1170</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
@@ -3295,8 +4255,14 @@
       <c r="D160" s="1">
         <v>112.1</v>
       </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="E160" s="1">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
@@ -3313,8 +4279,14 @@
       <c r="D161" s="1">
         <v>113.1</v>
       </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="E161" s="1">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
@@ -3331,8 +4303,14 @@
       <c r="D162" s="1">
         <v>116.5</v>
       </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="E162" s="1">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
@@ -3349,8 +4327,14 @@
       <c r="D163" s="1">
         <v>117</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="E163" s="1">
+        <f t="shared" si="6"/>
+        <v>585</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
@@ -3367,8 +4351,14 @@
       <c r="D164" s="1">
         <v>119.7</v>
       </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="E164" s="1">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
@@ -3385,8 +4375,14 @@
       <c r="D165" s="1">
         <v>121</v>
       </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="E165" s="1">
+        <f t="shared" si="6"/>
+        <v>870</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="5"/>
+        <v>1395</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
@@ -3403,8 +4399,14 @@
       <c r="D166" s="1">
         <v>122.4</v>
       </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="E166" s="1">
+        <f t="shared" si="6"/>
+        <v>465</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
@@ -3421,8 +4423,14 @@
       <c r="D167" s="1">
         <v>126.7</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="E167" s="1">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
@@ -3439,8 +4447,14 @@
       <c r="D168" s="1">
         <v>127.5</v>
       </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="E168" s="1">
+        <f t="shared" si="6"/>
+        <v>930</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="5"/>
+        <v>1230</v>
+      </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
@@ -3457,8 +4471,14 @@
       <c r="D169" s="1">
         <v>127.6</v>
       </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="E169" s="1">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
@@ -3475,8 +4495,14 @@
       <c r="D170" s="1">
         <v>127.9</v>
       </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="E170" s="1">
+        <f t="shared" si="6"/>
+        <v>960</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="5"/>
+        <v>1245</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
@@ -3493,8 +4519,14 @@
       <c r="D171" s="1">
         <v>128.69999999999999</v>
       </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="E171" s="1">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="5"/>
+        <v>1155</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
@@ -3511,8 +4543,14 @@
       <c r="D172" s="1">
         <v>131</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="E172" s="1">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="5"/>
+        <v>1245</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
@@ -3529,8 +4567,14 @@
       <c r="D173" s="1">
         <v>131.80000000000001</v>
       </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="E173" s="1">
+        <f t="shared" si="6"/>
+        <v>870</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="5"/>
+        <v>1230</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
@@ -3547,8 +4591,14 @@
       <c r="D174" s="1">
         <v>133.6</v>
       </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="E174" s="1">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
@@ -3565,8 +4615,14 @@
       <c r="D175" s="1">
         <v>139.5</v>
       </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="E175" s="1">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
@@ -3583,8 +4639,14 @@
       <c r="D176" s="1">
         <v>140.1</v>
       </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="E176" s="1">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
@@ -3601,8 +4663,14 @@
       <c r="D177" s="1">
         <v>140.80000000000001</v>
       </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="E177" s="1">
+        <f t="shared" si="6"/>
+        <v>885</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="5"/>
+        <v>1245</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
@@ -3619,8 +4687,14 @@
       <c r="D178" s="1">
         <v>144.19999999999999</v>
       </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="E178" s="1">
+        <f t="shared" si="6"/>
+        <v>795</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="5"/>
+        <v>1290</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
@@ -3637,8 +4711,14 @@
       <c r="D179" s="1">
         <v>144.4</v>
       </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="E179" s="1">
+        <f t="shared" si="6"/>
+        <v>495</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="5"/>
+        <v>1350</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
@@ -3655,8 +4735,14 @@
       <c r="D180" s="1">
         <v>146.5</v>
       </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="E180" s="1">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="5"/>
+        <v>1275</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
@@ -3673,8 +4759,14 @@
       <c r="D181" s="1">
         <v>146.69999999999999</v>
       </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="E181" s="1">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="5"/>
+        <v>1215</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
@@ -3691,8 +4783,14 @@
       <c r="D182" s="1">
         <v>148.1</v>
       </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="E182" s="1">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
@@ -3709,8 +4807,14 @@
       <c r="D183" s="1">
         <v>148.9</v>
       </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="E183" s="1">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
@@ -3727,8 +4831,14 @@
       <c r="D184" s="1">
         <v>149</v>
       </c>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="E184" s="1">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
@@ -3745,8 +4855,14 @@
       <c r="D185" s="1">
         <v>150.1</v>
       </c>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="E185" s="1">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="5"/>
+        <v>1290</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
@@ -3763,8 +4879,14 @@
       <c r="D186" s="1">
         <v>151.5</v>
       </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="E186" s="1">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="5"/>
+        <v>1185</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
@@ -3781,8 +4903,14 @@
       <c r="D187" s="1">
         <v>153</v>
       </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="E187" s="1">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="5"/>
+        <v>1125</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
@@ -3799,8 +4927,14 @@
       <c r="D188" s="1">
         <v>153.30000000000001</v>
       </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="E188" s="1">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="5"/>
+        <v>1080</v>
+      </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
@@ -3817,8 +4951,14 @@
       <c r="D189" s="1">
         <v>154.69999999999999</v>
       </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="E189" s="1">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
@@ -3835,8 +4975,14 @@
       <c r="D190" s="1">
         <v>154.80000000000001</v>
       </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="E190" s="1">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
@@ -3853,8 +4999,14 @@
       <c r="D191" s="1">
         <v>154.80000000000001</v>
       </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="E191" s="1">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="5"/>
+        <v>1080</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
@@ -3871,8 +5023,14 @@
       <c r="D192" s="1">
         <v>155.6</v>
       </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="E192" s="1">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="5"/>
+        <v>1290</v>
+      </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
@@ -3889,8 +5047,14 @@
       <c r="D193" s="1">
         <v>155.80000000000001</v>
       </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="E193" s="1">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="5"/>
+        <v>1080</v>
+      </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
@@ -3907,8 +5071,14 @@
       <c r="D194" s="1">
         <v>157.30000000000001</v>
       </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="E194" s="1">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="5"/>
+        <v>1275</v>
+      </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
@@ -3925,8 +5095,14 @@
       <c r="D195" s="1">
         <v>157.5</v>
       </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="E195" s="1">
+        <f t="shared" si="6"/>
+        <v>585</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" ref="F195:F258" si="7">C195*15</f>
+        <v>1365</v>
+      </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
@@ -3943,8 +5119,14 @@
       <c r="D196" s="1">
         <v>159.6</v>
       </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="E196" s="1">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
@@ -3961,8 +5143,14 @@
       <c r="D197" s="1">
         <v>161.80000000000001</v>
       </c>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="E197" s="1">
+        <f t="shared" ref="E197:E198" si="8">B197*15</f>
+        <v>540</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
@@ -3979,8 +5167,14 @@
       <c r="D198" s="1">
         <v>164.5</v>
       </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="E198" s="1">
+        <f t="shared" si="8"/>
+        <v>390</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
@@ -3997,8 +5191,14 @@
       <c r="D199" s="1">
         <v>167.2</v>
       </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="E199" s="1">
+        <f>B199*15</f>
+        <v>480</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="7"/>
+        <v>1365</v>
+      </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
@@ -4015,8 +5215,14 @@
       <c r="D200" s="1">
         <v>167.2</v>
       </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="E200" s="1">
+        <f t="shared" ref="E200:E215" si="9">B200*15</f>
+        <v>390</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="7"/>
+        <v>1185</v>
+      </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
@@ -4033,8 +5239,14 @@
       <c r="D201" s="1">
         <v>167.4</v>
       </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="E201" s="1">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
@@ -4051,8 +5263,14 @@
       <c r="D202" s="1">
         <v>167.4</v>
       </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="E202" s="1">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
@@ -4069,8 +5287,14 @@
       <c r="D203" s="1">
         <v>167.4</v>
       </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+      <c r="E203" s="1">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="7"/>
+        <v>1185</v>
+      </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
@@ -4087,8 +5311,14 @@
       <c r="D204" s="1">
         <v>167.4</v>
       </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+      <c r="E204" s="1">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="7"/>
+        <v>1230</v>
+      </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
@@ -4105,8 +5335,14 @@
       <c r="D205" s="1">
         <v>167.4</v>
       </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="E205" s="1">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
@@ -4123,8 +5359,14 @@
       <c r="D206" s="1">
         <v>167.4</v>
       </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="E206" s="1">
+        <f t="shared" si="9"/>
+        <v>630</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="7"/>
+        <v>1395</v>
+      </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
@@ -4141,8 +5383,14 @@
       <c r="D207" s="1">
         <v>167.4</v>
       </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
+      <c r="E207" s="1">
+        <f t="shared" si="9"/>
+        <v>420</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
@@ -4159,8 +5407,14 @@
       <c r="D208" s="1">
         <v>169.7</v>
       </c>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="E208" s="1">
+        <f t="shared" si="9"/>
+        <v>435</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="7"/>
+        <v>1185</v>
+      </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
@@ -4177,8 +5431,14 @@
       <c r="D209" s="1">
         <v>170.8</v>
       </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="E209" s="1">
+        <f t="shared" si="9"/>
+        <v>405</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="7"/>
+        <v>1365</v>
+      </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
@@ -4195,8 +5455,14 @@
       <c r="D210" s="1">
         <v>173.4</v>
       </c>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="E210" s="1">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="7"/>
+        <v>1335</v>
+      </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
@@ -4213,8 +5479,14 @@
       <c r="D211" s="1">
         <v>174</v>
       </c>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="E211" s="1">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="7"/>
+        <v>1185</v>
+      </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
@@ -4231,8 +5503,14 @@
       <c r="D212" s="1">
         <v>174</v>
       </c>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="E212" s="1">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
@@ -4249,8 +5527,14 @@
       <c r="D213" s="1">
         <v>176.1</v>
       </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="E213" s="1">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="7"/>
+        <v>1365</v>
+      </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
@@ -4267,8 +5551,14 @@
       <c r="D214" s="1">
         <v>181.6</v>
       </c>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="E214" s="1">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
@@ -4285,8 +5575,14 @@
       <c r="D215" s="1">
         <v>181.7</v>
       </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="E215" s="1">
+        <f t="shared" si="9"/>
+        <v>435</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" si="7"/>
+        <v>1395</v>
+      </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
@@ -4303,8 +5599,14 @@
       <c r="D216" s="1">
         <v>182.4</v>
       </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
+      <c r="E216" s="1">
+        <f>B216*15</f>
+        <v>390</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
@@ -4321,8 +5623,14 @@
       <c r="D217" s="1">
         <v>182.7</v>
       </c>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="E217" s="1">
+        <f t="shared" ref="E217:E282" si="10">B217*15</f>
+        <v>525</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
@@ -4339,8 +5647,14 @@
       <c r="D218" s="1">
         <v>184.5</v>
       </c>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="E218" s="1">
+        <f t="shared" si="10"/>
+        <v>570</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="7"/>
+        <v>1425</v>
+      </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
@@ -4357,8 +5671,14 @@
       <c r="D219" s="1">
         <v>184.8</v>
       </c>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="E219" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
@@ -4375,8 +5695,14 @@
       <c r="D220" s="1">
         <v>186.5</v>
       </c>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="E220" s="1">
+        <f t="shared" si="10"/>
+        <v>885</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="7"/>
+        <v>1245</v>
+      </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
@@ -4393,8 +5719,14 @@
       <c r="D221" s="1">
         <v>187.6</v>
       </c>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+      <c r="E221" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
@@ -4411,8 +5743,14 @@
       <c r="D222" s="1">
         <v>187.6</v>
       </c>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="E222" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="7"/>
+        <v>1155</v>
+      </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
@@ -4429,8 +5767,14 @@
       <c r="D223" s="1">
         <v>187.6</v>
       </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="E223" s="1">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
@@ -4447,8 +5791,14 @@
       <c r="D224" s="1">
         <v>187.6</v>
       </c>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="E224" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="7"/>
+        <v>1185</v>
+      </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
@@ -4465,8 +5815,14 @@
       <c r="D225" s="1">
         <v>187.6</v>
       </c>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="E225" s="1">
+        <f t="shared" si="10"/>
+        <v>585</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="7"/>
+        <v>1365</v>
+      </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
@@ -4483,8 +5839,14 @@
       <c r="D226" s="1">
         <v>190</v>
       </c>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="E226" s="1">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
@@ -4501,8 +5863,14 @@
       <c r="D227" s="1">
         <v>190.3</v>
       </c>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="E227" s="1">
+        <f t="shared" si="10"/>
+        <v>555</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
@@ -4519,8 +5887,14 @@
       <c r="D228" s="1">
         <v>190.6</v>
       </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="E228" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
@@ -4537,8 +5911,14 @@
       <c r="D229" s="1">
         <v>192.9</v>
       </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="E229" s="1">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="7"/>
+        <v>1215</v>
+      </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
@@ -4555,8 +5935,14 @@
       <c r="D230" s="1">
         <v>196.1</v>
       </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="E230" s="1">
+        <f t="shared" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="7"/>
+        <v>1170</v>
+      </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
@@ -4573,8 +5959,14 @@
       <c r="D231" s="1">
         <v>196.7</v>
       </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="E231" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
@@ -4591,8 +5983,14 @@
       <c r="D232" s="1">
         <v>197.9</v>
       </c>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="E232" s="1">
+        <f t="shared" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="7"/>
+        <v>1155</v>
+      </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
@@ -4609,8 +6007,14 @@
       <c r="D233" s="1">
         <v>197.9</v>
       </c>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="E233" s="1">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="7"/>
+        <v>1305</v>
+      </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
@@ -4627,8 +6031,14 @@
       <c r="D234" s="1">
         <v>199.7</v>
       </c>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="E234" s="1">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="7"/>
+        <v>1320</v>
+      </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
@@ -4645,8 +6055,14 @@
       <c r="D235" s="1">
         <v>202</v>
       </c>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="E235" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="7"/>
+        <v>1245</v>
+      </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
@@ -4663,8 +6079,14 @@
       <c r="D236" s="1">
         <v>202</v>
       </c>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="E236" s="1">
+        <f t="shared" si="10"/>
+        <v>510</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="7"/>
+        <v>1410</v>
+      </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
@@ -4681,8 +6103,14 @@
       <c r="D237" s="1">
         <v>202.5</v>
       </c>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="E237" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
@@ -4699,8 +6127,14 @@
       <c r="D238" s="1">
         <v>202.5</v>
       </c>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="E238" s="1">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
@@ -4717,8 +6151,14 @@
       <c r="D239" s="1">
         <v>203.5</v>
       </c>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="E239" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="7"/>
+        <v>1215</v>
+      </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
@@ -4735,8 +6175,14 @@
       <c r="D240" s="1">
         <v>210.3</v>
       </c>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="E240" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="7"/>
+        <v>1230</v>
+      </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
@@ -4753,8 +6199,14 @@
       <c r="D241" s="1">
         <v>213.6</v>
       </c>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="E241" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
@@ -4771,8 +6223,14 @@
       <c r="D242" s="1">
         <v>214.3</v>
       </c>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="E242" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" si="7"/>
+        <v>1395</v>
+      </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
@@ -4789,8 +6247,14 @@
       <c r="D243" s="1">
         <v>217.3</v>
       </c>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="E243" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="7"/>
+        <v>1440</v>
+      </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
@@ -4807,8 +6271,14 @@
       <c r="D244" s="1">
         <v>217.9</v>
       </c>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="E244" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
@@ -4825,8 +6295,14 @@
       <c r="D245" s="1">
         <v>217.9</v>
       </c>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="E245" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="7"/>
+        <v>1410</v>
+      </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
@@ -4843,8 +6319,14 @@
       <c r="D246" s="1">
         <v>217.9</v>
       </c>
-      <c r="E246" s="1"/>
-      <c r="F246" s="2"/>
+      <c r="E246" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="7"/>
+        <v>1455</v>
+      </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
@@ -4861,8 +6343,14 @@
       <c r="D247" s="1">
         <v>217.9</v>
       </c>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
+      <c r="E247" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
@@ -4879,8 +6367,14 @@
       <c r="D248" s="1">
         <v>217.9</v>
       </c>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
+      <c r="E248" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
@@ -4897,8 +6391,14 @@
       <c r="D249" s="1">
         <v>217.9</v>
       </c>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
+      <c r="E249" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="7"/>
+        <v>1425</v>
+      </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
@@ -4915,8 +6415,14 @@
       <c r="D250" s="1">
         <v>230.6</v>
       </c>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+      <c r="E250" s="1">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="7"/>
+        <v>1230</v>
+      </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
@@ -4933,8 +6439,14 @@
       <c r="D251" s="1">
         <v>231.6</v>
       </c>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
+      <c r="E251" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
@@ -4951,8 +6463,14 @@
       <c r="D252" s="1">
         <v>234.6</v>
       </c>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="E252" s="1">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="7"/>
+        <v>1440</v>
+      </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
@@ -4969,8 +6487,14 @@
       <c r="D253" s="1">
         <v>238.1</v>
       </c>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="E253" s="1">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
@@ -4987,8 +6511,14 @@
       <c r="D254" s="1">
         <v>238.1</v>
       </c>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="E254" s="1">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="7"/>
+        <v>1275</v>
+      </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
@@ -5005,8 +6535,14 @@
       <c r="D255" s="1">
         <v>238.1</v>
       </c>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="E255" s="1">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
@@ -5023,8 +6559,14 @@
       <c r="D256" s="1">
         <v>238.1</v>
       </c>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="E256" s="1">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="7"/>
+        <v>1425</v>
+      </c>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
@@ -5041,8 +6583,14 @@
       <c r="D257" s="1">
         <v>238.1</v>
       </c>
-      <c r="E257" s="1"/>
-      <c r="F257" s="2"/>
+      <c r="E257" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="7"/>
+        <v>1455</v>
+      </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
@@ -5059,8 +6607,14 @@
       <c r="D258" s="1">
         <v>238.1</v>
       </c>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="E258" s="1">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" si="7"/>
+        <v>1380</v>
+      </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
@@ -5077,8 +6631,14 @@
       <c r="D259" s="1">
         <v>238.1</v>
       </c>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="E259" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" ref="F259:F283" si="11">C259*15</f>
+        <v>1425</v>
+      </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
@@ -5095,8 +6655,14 @@
       <c r="D260" s="1">
         <v>238.1</v>
       </c>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+      <c r="E260" s="1">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
@@ -5113,8 +6679,14 @@
       <c r="D261" s="1">
         <v>241.6</v>
       </c>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
+      <c r="E261" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="11"/>
+        <v>1440</v>
+      </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
@@ -5131,8 +6703,14 @@
       <c r="D262" s="1">
         <v>243.4</v>
       </c>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+      <c r="E262" s="1">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="11"/>
+        <v>1410</v>
+      </c>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
@@ -5149,8 +6727,14 @@
       <c r="D263" s="1">
         <v>243.4</v>
       </c>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
+      <c r="E263" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="11"/>
+        <v>1440</v>
+      </c>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
@@ -5167,8 +6751,14 @@
       <c r="D264" s="1">
         <v>252.4</v>
       </c>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
+      <c r="E264" s="1">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="11"/>
+        <v>1230</v>
+      </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
@@ -5185,8 +6775,14 @@
       <c r="D265" s="1">
         <v>254</v>
       </c>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="E265" s="1">
+        <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="11"/>
+        <v>1395</v>
+      </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
@@ -5203,8 +6799,14 @@
       <c r="D266" s="1">
         <v>254</v>
       </c>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
+      <c r="E266" s="1">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="11"/>
+        <v>1425</v>
+      </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
@@ -5221,8 +6823,14 @@
       <c r="D267" s="1">
         <v>254</v>
       </c>
-      <c r="E267" s="1"/>
-      <c r="F267" s="2"/>
+      <c r="E267" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="11"/>
+        <v>1455</v>
+      </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
@@ -5239,8 +6847,14 @@
       <c r="D268" s="1">
         <v>255.3</v>
       </c>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
+      <c r="E268" s="1">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" si="11"/>
+        <v>1185</v>
+      </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
@@ -5257,8 +6871,14 @@
       <c r="D269" s="1">
         <v>255.3</v>
       </c>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
+      <c r="E269" s="1">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="11"/>
+        <v>1410</v>
+      </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
@@ -5275,8 +6895,14 @@
       <c r="D270" s="1">
         <v>255.3</v>
       </c>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
+      <c r="E270" s="1">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="11"/>
+        <v>735</v>
+      </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
@@ -5293,8 +6919,14 @@
       <c r="D271" s="1">
         <v>255.3</v>
       </c>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
+      <c r="E271" s="1">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="11"/>
+        <v>1245</v>
+      </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
@@ -5311,8 +6943,14 @@
       <c r="D272" s="1">
         <v>256.60000000000002</v>
       </c>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
+      <c r="E272" s="1">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="11"/>
+        <v>1335</v>
+      </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
@@ -5329,8 +6967,14 @@
       <c r="D273" s="1">
         <v>262.5</v>
       </c>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
+      <c r="E273" s="1">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="11"/>
+        <v>1335</v>
+      </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
@@ -5347,8 +6991,14 @@
       <c r="D274" s="1">
         <v>267</v>
       </c>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
+      <c r="E274" s="1">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="11"/>
+        <v>1170</v>
+      </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
@@ -5365,8 +7015,14 @@
       <c r="D275" s="1">
         <v>282.39999999999998</v>
       </c>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
+      <c r="E275" s="1">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="11"/>
+        <v>1230</v>
+      </c>
       <c r="G275" s="2"/>
       <c r="H275" s="1"/>
     </row>
@@ -5383,8 +7039,14 @@
       <c r="D276" s="1">
         <v>290.89999999999998</v>
       </c>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+      <c r="E276" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="11"/>
+        <v>1245</v>
+      </c>
       <c r="G276" s="2"/>
       <c r="H276" s="1"/>
     </row>
@@ -5401,8 +7063,14 @@
       <c r="D277" s="1">
         <v>295.7</v>
       </c>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
+      <c r="E277" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="11"/>
+        <v>1350</v>
+      </c>
       <c r="G277" s="2"/>
       <c r="H277" s="1"/>
     </row>
@@ -5419,8 +7087,14 @@
       <c r="D278" s="1">
         <v>296.3</v>
       </c>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
+      <c r="E278" s="1">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="11"/>
+        <v>1440</v>
+      </c>
       <c r="G278" s="2"/>
       <c r="H278" s="1"/>
     </row>
@@ -5437,8 +7111,14 @@
       <c r="D279" s="1">
         <v>314.2</v>
       </c>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
+      <c r="E279" s="1">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="11"/>
+        <v>1305</v>
+      </c>
       <c r="G279" s="2"/>
       <c r="H279" s="1"/>
     </row>
@@ -5455,8 +7135,14 @@
       <c r="D280" s="1">
         <v>320.7</v>
       </c>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
+      <c r="E280" s="1">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="11"/>
+        <v>1425</v>
+      </c>
       <c r="G280" s="2"/>
       <c r="H280" s="1"/>
     </row>
@@ -5473,8 +7159,14 @@
       <c r="D281" s="1">
         <v>335.5</v>
       </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
+      <c r="E281" s="1">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
       <c r="G281" s="2"/>
       <c r="H281" s="1"/>
     </row>
@@ -5491,8 +7183,14 @@
       <c r="D282" s="1">
         <v>346.1</v>
       </c>
-      <c r="E282" s="1"/>
-      <c r="F282" s="2"/>
+      <c r="E282" s="1">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="11"/>
+        <v>1455</v>
+      </c>
       <c r="G282" s="2"/>
       <c r="H282" s="1"/>
     </row>
@@ -5509,8 +7207,14 @@
       <c r="D283" s="1">
         <v>388</v>
       </c>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="E283" s="1">
+        <f t="shared" ref="E283" si="12">B283*15</f>
+        <v>270</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
       <c r="G283" s="2"/>
       <c r="H283" s="1"/>
     </row>
